--- a/GSX Results.xlsx
+++ b/GSX Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swiftteamsix/Dropbox/Business/Yolo Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A097F73-B09B-794D-AF2B-32C30CB4E0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6092E75-7E60-AD4C-8C8A-07CCE0457B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38760" yWindow="460" windowWidth="38040" windowHeight="42740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="76080" windowHeight="42740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
   <si>
     <t>Date</t>
   </si>
@@ -136,18 +136,18 @@
     <t>$27.0M</t>
   </si>
   <si>
+    <t>09:48:37</t>
+  </si>
+  <si>
+    <t>$5.0M</t>
+  </si>
+  <si>
     <t>15:50:06</t>
   </si>
   <si>
     <t>$18.0M</t>
   </si>
   <si>
-    <t>09:48:37</t>
-  </si>
-  <si>
-    <t>$5.0M</t>
-  </si>
-  <si>
     <t>11:58:20</t>
   </si>
   <si>
@@ -193,35 +193,178 @@
     <t>$20.0M</t>
   </si>
   <si>
+    <t>13:46:58</t>
+  </si>
+  <si>
+    <t>$8.7M</t>
+  </si>
+  <si>
+    <t>14:18:41</t>
+  </si>
+  <si>
+    <t>$7.0M</t>
+  </si>
+  <si>
     <t>15:02:39</t>
   </si>
   <si>
-    <t>$8.7M</t>
-  </si>
-  <si>
-    <t>13:46:58</t>
-  </si>
-  <si>
-    <t>14:18:41</t>
-  </si>
-  <si>
-    <t>$7.0M</t>
-  </si>
-  <si>
     <t>13:53:50</t>
   </si>
   <si>
     <t>$5.3M</t>
+  </si>
+  <si>
+    <t>15:49:52</t>
+  </si>
+  <si>
+    <t>$28.0M</t>
+  </si>
+  <si>
+    <t>13:10:29</t>
+  </si>
+  <si>
+    <t>$7.6M</t>
+  </si>
+  <si>
+    <t>16:36:41</t>
+  </si>
+  <si>
+    <t>$30.0M</t>
+  </si>
+  <si>
+    <t>16:22:35</t>
+  </si>
+  <si>
+    <t>16:34:21</t>
+  </si>
+  <si>
+    <t>$10.0M</t>
+  </si>
+  <si>
+    <t>16:30:44</t>
+  </si>
+  <si>
+    <t>$5.2M</t>
+  </si>
+  <si>
+    <t>15:01:40</t>
+  </si>
+  <si>
+    <t>$6.1M</t>
+  </si>
+  <si>
+    <t>14:52:56</t>
+  </si>
+  <si>
+    <t>$7.8M</t>
+  </si>
+  <si>
+    <t>15:34:46</t>
+  </si>
+  <si>
+    <t>14:53:13</t>
+  </si>
+  <si>
+    <t>$6.9M</t>
+  </si>
+  <si>
+    <t>16:27:41</t>
+  </si>
+  <si>
+    <t>15:25:31</t>
+  </si>
+  <si>
+    <t>15:53:51</t>
+  </si>
+  <si>
+    <t>$19.0M</t>
+  </si>
+  <si>
+    <t>15:36:20</t>
+  </si>
+  <si>
+    <t>15:34:54</t>
+  </si>
+  <si>
+    <t>$85.0M</t>
+  </si>
+  <si>
+    <t>13:59:12</t>
+  </si>
+  <si>
+    <t>12:19:05</t>
+  </si>
+  <si>
+    <t>$6.4M</t>
+  </si>
+  <si>
+    <t>10:46:26</t>
+  </si>
+  <si>
+    <t>$8.1M</t>
+  </si>
+  <si>
+    <t>16:33:25</t>
+  </si>
+  <si>
+    <t>$52.0M</t>
+  </si>
+  <si>
+    <t>12:53:58</t>
+  </si>
+  <si>
+    <t>15:49:21</t>
+  </si>
+  <si>
+    <t>15:08:12</t>
+  </si>
+  <si>
+    <t>$180.0M</t>
+  </si>
+  <si>
+    <t>14:57:25</t>
+  </si>
+  <si>
+    <t>12:31:10</t>
+  </si>
+  <si>
+    <t>$9.8M</t>
+  </si>
+  <si>
+    <t>12:42:40</t>
+  </si>
+  <si>
+    <t>$7.5M</t>
+  </si>
+  <si>
+    <t>16:06:44</t>
+  </si>
+  <si>
+    <t>$87.0M</t>
+  </si>
+  <si>
+    <t>16:22:00</t>
+  </si>
+  <si>
+    <t>$66.0M</t>
+  </si>
+  <si>
+    <t>15:01:25</t>
+  </si>
+  <si>
+    <t>$60.0M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +376,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -267,20 +423,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -578,18 +761,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,7 +789,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -629,7 +815,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1000000</v>
       </c>
       <c r="E2">
@@ -655,7 +841,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1000000</v>
       </c>
       <c r="E3">
@@ -681,7 +867,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>750000</v>
       </c>
       <c r="E4">
@@ -707,7 +893,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>174900</v>
       </c>
       <c r="E5">
@@ -733,7 +919,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>967840</v>
       </c>
       <c r="E6">
@@ -759,7 +945,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>500000</v>
       </c>
       <c r="E7">
@@ -785,7 +971,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>250000</v>
       </c>
       <c r="E8">
@@ -811,7 +997,7 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>275000</v>
       </c>
       <c r="E9">
@@ -837,7 +1023,7 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>830000</v>
       </c>
       <c r="E10">
@@ -863,7 +1049,7 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>500000</v>
       </c>
       <c r="E11">
@@ -889,7 +1075,7 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>400000</v>
       </c>
       <c r="E12">
@@ -915,7 +1101,7 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>750000</v>
       </c>
       <c r="E13">
@@ -941,7 +1127,7 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>200000</v>
       </c>
       <c r="E14">
@@ -967,7 +1153,7 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>800000</v>
       </c>
       <c r="E15">
@@ -993,14 +1179,14 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16">
-        <v>550000</v>
+      <c r="D16" s="4">
+        <v>158500</v>
       </c>
       <c r="E16">
-        <v>32.78</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>0.1235</v>
+        <v>3.56E-2</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1019,14 +1205,14 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>158500</v>
+      <c r="D17" s="4">
+        <v>550000</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>32.78</v>
       </c>
       <c r="F17">
-        <v>3.56E-2</v>
+        <v>0.1235</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -1045,7 +1231,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>200000</v>
       </c>
       <c r="E18">
@@ -1071,7 +1257,7 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>1325000</v>
       </c>
       <c r="E19">
@@ -1097,7 +1283,7 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>150000</v>
       </c>
       <c r="E20">
@@ -1123,7 +1309,7 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>160000</v>
       </c>
       <c r="E21">
@@ -1149,7 +1335,7 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>300000</v>
       </c>
       <c r="E22">
@@ -1175,7 +1361,7 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>125000</v>
       </c>
       <c r="E23">
@@ -1201,7 +1387,7 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>520515</v>
       </c>
       <c r="E24">
@@ -1227,7 +1413,7 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>500000</v>
       </c>
       <c r="E25">
@@ -1253,11 +1439,11 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>250000</v>
       </c>
       <c r="E26">
-        <v>34.93</v>
+        <v>35.15</v>
       </c>
       <c r="F26">
         <v>4.6399999999999997E-2</v>
@@ -1266,7 +1452,7 @@
         <v>58</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1279,17 +1465,17 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27">
-        <v>250000</v>
+      <c r="D27" s="4">
+        <v>200000</v>
       </c>
       <c r="E27">
-        <v>35.15</v>
+        <v>35.229999999999997</v>
       </c>
       <c r="F27">
-        <v>4.6399999999999997E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1300,25 +1486,25 @@
         <v>43965</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
-        <v>200000</v>
+      <c r="D28" s="4">
+        <v>250000</v>
       </c>
       <c r="E28">
-        <v>35.229999999999997</v>
+        <v>34.93</v>
       </c>
       <c r="F28">
-        <v>3.7100000000000001E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="G28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1331,7 +1517,7 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>150000</v>
       </c>
       <c r="E29">
@@ -1347,7 +1533,740 @@
         <v>14</v>
       </c>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>43970</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4">
+        <v>839214</v>
+      </c>
+      <c r="E30">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4">
+        <v>250000</v>
+      </c>
+      <c r="E31">
+        <v>30.5</v>
+      </c>
+      <c r="F31">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>43971</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E32">
+        <v>30.58</v>
+      </c>
+      <c r="F32">
+        <v>0.1648</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>43973</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>433037</v>
+      </c>
+      <c r="E33">
+        <v>29.73</v>
+      </c>
+      <c r="F33">
+        <v>6.88E-2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4">
+        <v>353210</v>
+      </c>
+      <c r="E34">
+        <v>29.77</v>
+      </c>
+      <c r="F34">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4">
+        <v>174831</v>
+      </c>
+      <c r="E35">
+        <v>29.85</v>
+      </c>
+      <c r="F35">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>195099</v>
+      </c>
+      <c r="E36">
+        <v>31.359200000000001</v>
+      </c>
+      <c r="F36">
+        <v>3.27E-2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4">
+        <v>250000</v>
+      </c>
+      <c r="E37">
+        <v>31.46</v>
+      </c>
+      <c r="F37">
+        <v>4.19E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1150000</v>
+      </c>
+      <c r="E38">
+        <v>32.61</v>
+      </c>
+      <c r="F38">
+        <v>0.19270000000000001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4">
+        <v>175000</v>
+      </c>
+      <c r="E39">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="F39">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E40">
+        <v>41.4</v>
+      </c>
+      <c r="F40">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>300000</v>
+      </c>
+      <c r="E41">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="F41">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4">
+        <v>495589</v>
+      </c>
+      <c r="E42">
+        <v>39.6</v>
+      </c>
+      <c r="F42">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4">
+        <v>576867</v>
+      </c>
+      <c r="E43">
+        <v>40.97</v>
+      </c>
+      <c r="F43">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2154123</v>
+      </c>
+      <c r="E44">
+        <v>39.5</v>
+      </c>
+      <c r="F44">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4">
+        <v>400000</v>
+      </c>
+      <c r="E45">
+        <v>41.6</v>
+      </c>
+      <c r="F45">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4">
+        <v>125000</v>
+      </c>
+      <c r="E46">
+        <v>51.7</v>
+      </c>
+      <c r="F46">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4">
+        <v>150000</v>
+      </c>
+      <c r="E47">
+        <v>54.5</v>
+      </c>
+      <c r="F47">
+        <v>2.24E-2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="E48">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="G48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4">
+        <v>100000</v>
+      </c>
+      <c r="E49">
+        <v>52.15</v>
+      </c>
+      <c r="F49">
+        <v>1.49E-2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E50">
+        <v>51.78</v>
+      </c>
+      <c r="F50">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3215364</v>
+      </c>
+      <c r="E51">
+        <v>56.16</v>
+      </c>
+      <c r="F51">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="G51" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E52">
+        <v>56.05</v>
+      </c>
+      <c r="F52">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4">
+        <v>170000</v>
+      </c>
+      <c r="E53">
+        <v>58.02</v>
+      </c>
+      <c r="F53">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>130000</v>
+      </c>
+      <c r="E54">
+        <v>58.02</v>
+      </c>
+      <c r="F54">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1505239</v>
+      </c>
+      <c r="E55">
+        <v>57.8</v>
+      </c>
+      <c r="F55">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1154254</v>
+      </c>
+      <c r="E56">
+        <v>57.65</v>
+      </c>
+      <c r="F56">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="G56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1051121</v>
+      </c>
+      <c r="E57">
+        <v>57.65</v>
+      </c>
+      <c r="F57">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>1000000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/GSX Results.xlsx
+++ b/GSX Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swiftteamsix/Dropbox/Business/Yolo Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6092E75-7E60-AD4C-8C8A-07CCE0457B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8103CE0D-8465-A342-8956-AE2C82703B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="76080" windowHeight="42740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -115,18 +115,18 @@
     <t>$14.0M</t>
   </si>
   <si>
+    <t>15:27:39</t>
+  </si>
+  <si>
+    <t>$23.0M</t>
+  </si>
+  <si>
     <t>15:53:05</t>
   </si>
   <si>
     <t>$12.0M</t>
   </si>
   <si>
-    <t>15:27:39</t>
-  </si>
-  <si>
-    <t>$23.0M</t>
-  </si>
-  <si>
     <t>16:19:22</t>
   </si>
   <si>
@@ -175,18 +175,18 @@
     <t>$11.0M</t>
   </si>
   <si>
+    <t>15:31:16</t>
+  </si>
+  <si>
+    <t>$21.0M</t>
+  </si>
+  <si>
     <t>16:11:07</t>
   </si>
   <si>
     <t>$5.1M</t>
   </si>
   <si>
-    <t>15:31:16</t>
-  </si>
-  <si>
-    <t>$21.0M</t>
-  </si>
-  <si>
     <t>15:05:44</t>
   </si>
   <si>
@@ -220,18 +220,18 @@
     <t>$28.0M</t>
   </si>
   <si>
+    <t>16:36:41</t>
+  </si>
+  <si>
+    <t>$30.0M</t>
+  </si>
+  <si>
     <t>13:10:29</t>
   </si>
   <si>
     <t>$7.6M</t>
   </si>
   <si>
-    <t>16:36:41</t>
-  </si>
-  <si>
-    <t>$30.0M</t>
-  </si>
-  <si>
     <t>16:22:35</t>
   </si>
   <si>
@@ -247,18 +247,18 @@
     <t>$5.2M</t>
   </si>
   <si>
+    <t>14:52:56</t>
+  </si>
+  <si>
+    <t>$7.8M</t>
+  </si>
+  <si>
     <t>15:01:40</t>
   </si>
   <si>
     <t>$6.1M</t>
   </si>
   <si>
-    <t>14:52:56</t>
-  </si>
-  <si>
-    <t>$7.8M</t>
-  </si>
-  <si>
     <t>15:34:46</t>
   </si>
   <si>
@@ -292,6 +292,12 @@
     <t>13:59:12</t>
   </si>
   <si>
+    <t>16:33:25</t>
+  </si>
+  <si>
+    <t>$52.0M</t>
+  </si>
+  <si>
     <t>12:19:05</t>
   </si>
   <si>
@@ -304,12 +310,6 @@
     <t>$8.1M</t>
   </si>
   <si>
-    <t>16:33:25</t>
-  </si>
-  <si>
-    <t>$52.0M</t>
-  </si>
-  <si>
     <t>12:53:58</t>
   </si>
   <si>
@@ -325,18 +325,18 @@
     <t>14:57:25</t>
   </si>
   <si>
+    <t>12:42:40</t>
+  </si>
+  <si>
+    <t>$7.5M</t>
+  </si>
+  <si>
     <t>12:31:10</t>
   </si>
   <si>
     <t>$9.8M</t>
   </si>
   <si>
-    <t>12:42:40</t>
-  </si>
-  <si>
-    <t>$7.5M</t>
-  </si>
-  <si>
     <t>16:06:44</t>
   </si>
   <si>
@@ -353,18 +353,100 @@
   </si>
   <si>
     <t>$60.0M</t>
+  </si>
+  <si>
+    <t>15:03:22</t>
+  </si>
+  <si>
+    <t>$24.0M</t>
+  </si>
+  <si>
+    <t>15:00:30</t>
+  </si>
+  <si>
+    <t>15:07:08</t>
+  </si>
+  <si>
+    <t>15:16:32</t>
+  </si>
+  <si>
+    <t>$48.0M</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>$54.0M</t>
+  </si>
+  <si>
+    <t>15:06:54</t>
+  </si>
+  <si>
+    <t>$8.4M</t>
+  </si>
+  <si>
+    <t>14:59:42</t>
+  </si>
+  <si>
+    <t>$9.2M</t>
+  </si>
+  <si>
+    <t>14:58:58</t>
+  </si>
+  <si>
+    <t>$13.0M</t>
+  </si>
+  <si>
+    <t>14:50:00</t>
+  </si>
+  <si>
+    <t>$9.3M</t>
+  </si>
+  <si>
+    <t>14:55:45</t>
+  </si>
+  <si>
+    <t>15:51:17</t>
+  </si>
+  <si>
+    <t>$41.0M</t>
+  </si>
+  <si>
+    <t>11:01:14</t>
+  </si>
+  <si>
+    <t>10:43:22</t>
+  </si>
+  <si>
+    <t>$17.0M</t>
+  </si>
+  <si>
+    <t>10:08:10</t>
+  </si>
+  <si>
+    <t>09:52:18</t>
+  </si>
+  <si>
+    <t>15:00:28</t>
+  </si>
+  <si>
+    <t>07:00:02</t>
+  </si>
+  <si>
+    <t>15:59:33</t>
+  </si>
+  <si>
+    <t>$9.7M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,19 +458,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -423,36 +492,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -761,22 +814,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -789,7 +841,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -815,7 +867,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>1000000</v>
       </c>
       <c r="E2">
@@ -841,7 +893,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>1000000</v>
       </c>
       <c r="E3">
@@ -867,7 +919,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <v>750000</v>
       </c>
       <c r="E4">
@@ -893,7 +945,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>174900</v>
       </c>
       <c r="E5">
@@ -919,7 +971,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>967840</v>
       </c>
       <c r="E6">
@@ -945,7 +997,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>500000</v>
       </c>
       <c r="E7">
@@ -971,7 +1023,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>250000</v>
       </c>
       <c r="E8">
@@ -997,7 +1049,7 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9">
         <v>275000</v>
       </c>
       <c r="E9">
@@ -1023,7 +1075,7 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>830000</v>
       </c>
       <c r="E10">
@@ -1049,7 +1101,7 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>500000</v>
       </c>
       <c r="E11">
@@ -1075,14 +1127,14 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4">
-        <v>400000</v>
+      <c r="D12">
+        <v>750000</v>
       </c>
       <c r="E12">
         <v>31.72</v>
       </c>
       <c r="F12">
-        <v>9.8900000000000002E-2</v>
+        <v>0.1855</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1101,14 +1153,14 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4">
-        <v>750000</v>
+      <c r="D13">
+        <v>400000</v>
       </c>
       <c r="E13">
         <v>31.72</v>
       </c>
       <c r="F13">
-        <v>0.1855</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1127,7 +1179,7 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>200000</v>
       </c>
       <c r="E14">
@@ -1148,12 +1200,12 @@
         <v>43943</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>800000</v>
       </c>
       <c r="E15">
@@ -1179,7 +1231,7 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>158500</v>
       </c>
       <c r="E16">
@@ -1205,7 +1257,7 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>550000</v>
       </c>
       <c r="E17">
@@ -1231,7 +1283,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>200000</v>
       </c>
       <c r="E18">
@@ -1257,7 +1309,7 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19">
         <v>1325000</v>
       </c>
       <c r="E19">
@@ -1283,7 +1335,7 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20">
         <v>150000</v>
       </c>
       <c r="E20">
@@ -1309,7 +1361,7 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21">
         <v>160000</v>
       </c>
       <c r="E21">
@@ -1335,7 +1387,7 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22">
         <v>300000</v>
       </c>
       <c r="E22">
@@ -1361,14 +1413,14 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4">
-        <v>125000</v>
+      <c r="D23">
+        <v>520515</v>
       </c>
       <c r="E23">
         <v>40.869999999999997</v>
       </c>
       <c r="F23">
-        <v>2.3800000000000002E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -1387,14 +1439,14 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="4">
-        <v>520515</v>
+      <c r="D24">
+        <v>125000</v>
       </c>
       <c r="E24">
         <v>40.869999999999997</v>
       </c>
       <c r="F24">
-        <v>9.9299999999999999E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="G24" t="s">
         <v>54</v>
@@ -1413,7 +1465,7 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>500000</v>
       </c>
       <c r="E25">
@@ -1439,7 +1491,7 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <v>250000</v>
       </c>
       <c r="E26">
@@ -1465,7 +1517,7 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27">
         <v>200000</v>
       </c>
       <c r="E27">
@@ -1491,7 +1543,7 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28">
         <v>250000</v>
       </c>
       <c r="E28">
@@ -1517,7 +1569,7 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29">
         <v>150000</v>
       </c>
       <c r="E29">
@@ -1543,7 +1595,7 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30">
         <v>839214</v>
       </c>
       <c r="E30">
@@ -1569,23 +1621,23 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4">
-        <v>250000</v>
+      <c r="D31">
+        <v>1000000</v>
       </c>
       <c r="E31">
-        <v>30.5</v>
+        <v>30.58</v>
       </c>
       <c r="F31">
-        <v>4.1200000000000001E-2</v>
+        <v>0.1648</v>
       </c>
       <c r="G31" t="s">
         <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43971</v>
       </c>
@@ -1595,20 +1647,20 @@
       <c r="C32" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4">
-        <v>1000000</v>
+      <c r="D32">
+        <v>250000</v>
       </c>
       <c r="E32">
-        <v>30.58</v>
+        <v>30.5</v>
       </c>
       <c r="F32">
-        <v>0.1648</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="G32" t="s">
         <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1621,7 +1673,7 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33">
         <v>433037</v>
       </c>
       <c r="E33">
@@ -1631,7 +1683,7 @@
         <v>6.88E-2</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1647,7 +1699,7 @@
       <c r="C34" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34">
         <v>353210</v>
       </c>
       <c r="E34">
@@ -1673,7 +1725,7 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35">
         <v>174831</v>
       </c>
       <c r="E35">
@@ -1699,20 +1751,20 @@
       <c r="C36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="4">
-        <v>195099</v>
+      <c r="D36">
+        <v>250000</v>
       </c>
       <c r="E36">
-        <v>31.359200000000001</v>
+        <v>31.46</v>
       </c>
       <c r="F36">
-        <v>3.27E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="G36" t="s">
         <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1725,20 +1777,20 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="4">
-        <v>250000</v>
+      <c r="D37">
+        <v>195099</v>
       </c>
       <c r="E37">
-        <v>31.46</v>
+        <v>31.359200000000001</v>
       </c>
       <c r="F37">
-        <v>4.19E-2</v>
+        <v>3.27E-2</v>
       </c>
       <c r="G37" t="s">
         <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1751,7 +1803,7 @@
       <c r="C38" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38">
         <v>1150000</v>
       </c>
       <c r="E38">
@@ -1777,7 +1829,7 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39">
         <v>175000</v>
       </c>
       <c r="E39">
@@ -1803,7 +1855,7 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40">
         <v>500000</v>
       </c>
       <c r="E40">
@@ -1829,7 +1881,7 @@
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41">
         <v>300000</v>
       </c>
       <c r="E41">
@@ -1839,7 +1891,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -1855,7 +1907,7 @@
       <c r="C42" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42">
         <v>495589</v>
       </c>
       <c r="E42">
@@ -1881,7 +1933,7 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43">
         <v>576867</v>
       </c>
       <c r="E43">
@@ -1891,7 +1943,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -1907,7 +1959,7 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44">
         <v>2154123</v>
       </c>
       <c r="E44">
@@ -1933,7 +1985,7 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45">
         <v>400000</v>
       </c>
       <c r="E45">
@@ -1959,14 +2011,14 @@
       <c r="C46" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="4">
-        <v>125000</v>
+      <c r="D46">
+        <v>1000000</v>
       </c>
       <c r="E46">
-        <v>51.7</v>
+        <v>52</v>
       </c>
       <c r="F46">
-        <v>1.8700000000000001E-2</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="G46" t="s">
         <v>91</v>
@@ -1985,20 +2037,20 @@
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4">
-        <v>150000</v>
+      <c r="D47">
+        <v>125000</v>
       </c>
       <c r="E47">
-        <v>54.5</v>
+        <v>51.7</v>
       </c>
       <c r="F47">
-        <v>2.24E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="G47" t="s">
         <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2011,20 +2063,20 @@
       <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="4">
-        <v>1000000</v>
+      <c r="D48">
+        <v>150000</v>
       </c>
       <c r="E48">
-        <v>52</v>
+        <v>54.5</v>
       </c>
       <c r="F48">
-        <v>0.14929999999999999</v>
+        <v>2.24E-2</v>
       </c>
       <c r="G48" t="s">
         <v>95</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2037,7 +2089,7 @@
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49">
         <v>100000</v>
       </c>
       <c r="E49">
@@ -2063,7 +2115,7 @@
       <c r="C50" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50">
         <v>500000</v>
       </c>
       <c r="E50">
@@ -2089,7 +2141,7 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51">
         <v>3215364</v>
       </c>
       <c r="E51">
@@ -2115,7 +2167,7 @@
       <c r="C52" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52">
         <v>200000</v>
       </c>
       <c r="E52">
@@ -2141,14 +2193,14 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="4">
-        <v>170000</v>
+      <c r="D53">
+        <v>130000</v>
       </c>
       <c r="E53">
         <v>58.02</v>
       </c>
       <c r="F53">
-        <v>2.1999999999999999E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="G53" t="s">
         <v>102</v>
@@ -2167,14 +2219,14 @@
       <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="4">
-        <v>130000</v>
+      <c r="D54">
+        <v>170000</v>
       </c>
       <c r="E54">
         <v>58.02</v>
       </c>
       <c r="F54">
-        <v>1.6799999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G54" t="s">
         <v>104</v>
@@ -2193,7 +2245,7 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55">
         <v>1505239</v>
       </c>
       <c r="E55">
@@ -2219,7 +2271,7 @@
       <c r="C56" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56">
         <v>1154254</v>
       </c>
       <c r="E56">
@@ -2245,7 +2297,7 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57">
         <v>1051121</v>
       </c>
       <c r="E57">
@@ -2261,9 +2313,477 @@
         <v>14</v>
       </c>
     </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>425000</v>
+      </c>
+      <c r="E58">
+        <v>58.33</v>
+      </c>
+      <c r="F58">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>140550</v>
+      </c>
+      <c r="E59">
+        <v>58.33</v>
+      </c>
+      <c r="F59">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>560000</v>
+      </c>
+      <c r="E60">
+        <v>58.33</v>
+      </c>
+      <c r="F60">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>835781</v>
+      </c>
+      <c r="E61">
+        <v>58.33</v>
+      </c>
+      <c r="F61">
+        <v>0.1075</v>
+      </c>
+      <c r="G61" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>940000</v>
+      </c>
+      <c r="E62">
+        <v>57.65</v>
+      </c>
+      <c r="F62">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>128022</v>
+      </c>
+      <c r="E63">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="F63">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>140500</v>
+      </c>
+      <c r="E64">
+        <v>65.8</v>
+      </c>
+      <c r="F64">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>200000</v>
+      </c>
+      <c r="E65">
+        <v>69.344999999999999</v>
+      </c>
+      <c r="F65">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>136300</v>
+      </c>
+      <c r="E66">
+        <v>68.745000000000005</v>
+      </c>
+      <c r="F66">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>100000</v>
+      </c>
+      <c r="E67">
+        <v>69.025000000000006</v>
+      </c>
+      <c r="F67">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>600000</v>
+      </c>
+      <c r="E68">
+        <v>69.11</v>
+      </c>
+      <c r="F68">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>129</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69">
+        <v>150000</v>
+      </c>
+      <c r="E69">
+        <v>79.174999999999997</v>
+      </c>
+      <c r="F69">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>220000</v>
+      </c>
+      <c r="E70">
+        <v>77.275000000000006</v>
+      </c>
+      <c r="F70">
+        <v>3.32E-2</v>
+      </c>
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71">
+        <v>150000</v>
+      </c>
+      <c r="E71">
+        <v>75.155000000000001</v>
+      </c>
+      <c r="F71">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="G71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B72" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72">
+        <v>115000</v>
+      </c>
+      <c r="E72">
+        <v>75.474999999999994</v>
+      </c>
+      <c r="F72">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73">
+        <v>525752</v>
+      </c>
+      <c r="E73">
+        <v>87.86</v>
+      </c>
+      <c r="F73">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>250000</v>
+      </c>
+      <c r="E74">
+        <v>87.86</v>
+      </c>
+      <c r="F74">
+        <v>3.61E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>110804</v>
+      </c>
+      <c r="E75">
+        <v>87.63</v>
+      </c>
+      <c r="F75">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>138</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>1000000</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GSX Results.xlsx
+++ b/GSX Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swiftteamsix/Dropbox/Business/Yolo Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8103CE0D-8465-A342-8956-AE2C82703B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B60C40-2F7E-D041-827D-F1EFE9FD5CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="76080" windowHeight="42740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
   <si>
     <t>Date</t>
   </si>
@@ -115,18 +115,18 @@
     <t>$14.0M</t>
   </si>
   <si>
+    <t>15:53:05</t>
+  </si>
+  <si>
+    <t>$12.0M</t>
+  </si>
+  <si>
     <t>15:27:39</t>
   </si>
   <si>
     <t>$23.0M</t>
   </si>
   <si>
-    <t>15:53:05</t>
-  </si>
-  <si>
-    <t>$12.0M</t>
-  </si>
-  <si>
     <t>16:19:22</t>
   </si>
   <si>
@@ -136,18 +136,18 @@
     <t>$27.0M</t>
   </si>
   <si>
+    <t>15:50:06</t>
+  </si>
+  <si>
+    <t>$18.0M</t>
+  </si>
+  <si>
     <t>09:48:37</t>
   </si>
   <si>
     <t>$5.0M</t>
   </si>
   <si>
-    <t>15:50:06</t>
-  </si>
-  <si>
-    <t>$18.0M</t>
-  </si>
-  <si>
     <t>11:58:20</t>
   </si>
   <si>
@@ -325,18 +325,18 @@
     <t>14:57:25</t>
   </si>
   <si>
+    <t>12:31:10</t>
+  </si>
+  <si>
+    <t>$9.8M</t>
+  </si>
+  <si>
     <t>12:42:40</t>
   </si>
   <si>
     <t>$7.5M</t>
   </si>
   <si>
-    <t>12:31:10</t>
-  </si>
-  <si>
-    <t>$9.8M</t>
-  </si>
-  <si>
     <t>16:06:44</t>
   </si>
   <si>
@@ -355,28 +355,34 @@
     <t>$60.0M</t>
   </si>
   <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>$54.0M</t>
+  </si>
+  <si>
+    <t>15:00:30</t>
+  </si>
+  <si>
+    <t>15:07:08</t>
+  </si>
+  <si>
     <t>15:03:22</t>
   </si>
   <si>
     <t>$24.0M</t>
   </si>
   <si>
-    <t>15:00:30</t>
-  </si>
-  <si>
-    <t>15:07:08</t>
-  </si>
-  <si>
     <t>15:16:32</t>
   </si>
   <si>
     <t>$48.0M</t>
   </si>
   <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>$54.0M</t>
+    <t>14:59:42</t>
+  </si>
+  <si>
+    <t>$9.2M</t>
   </si>
   <si>
     <t>15:06:54</t>
@@ -385,10 +391,13 @@
     <t>$8.4M</t>
   </si>
   <si>
-    <t>14:59:42</t>
-  </si>
-  <si>
-    <t>$9.2M</t>
+    <t>14:50:00</t>
+  </si>
+  <si>
+    <t>$9.3M</t>
+  </si>
+  <si>
+    <t>14:55:45</t>
   </si>
   <si>
     <t>14:58:58</t>
@@ -397,36 +406,27 @@
     <t>$13.0M</t>
   </si>
   <si>
-    <t>14:50:00</t>
-  </si>
-  <si>
-    <t>$9.3M</t>
-  </si>
-  <si>
-    <t>14:55:45</t>
-  </si>
-  <si>
     <t>15:51:17</t>
   </si>
   <si>
     <t>$41.0M</t>
   </si>
   <si>
+    <t>09:52:18</t>
+  </si>
+  <si>
+    <t>10:43:22</t>
+  </si>
+  <si>
+    <t>$17.0M</t>
+  </si>
+  <si>
     <t>11:01:14</t>
   </si>
   <si>
-    <t>10:43:22</t>
-  </si>
-  <si>
-    <t>$17.0M</t>
-  </si>
-  <si>
     <t>10:08:10</t>
   </si>
   <si>
-    <t>09:52:18</t>
-  </si>
-  <si>
     <t>15:00:28</t>
   </si>
   <si>
@@ -437,6 +437,27 @@
   </si>
   <si>
     <t>$9.7M</t>
+  </si>
+  <si>
+    <t>15:37:34</t>
+  </si>
+  <si>
+    <t>$38.0M</t>
+  </si>
+  <si>
+    <t>13:05:41</t>
+  </si>
+  <si>
+    <t>09:38:51</t>
+  </si>
+  <si>
+    <t>$7.4M</t>
+  </si>
+  <si>
+    <t>15:35:15</t>
+  </si>
+  <si>
+    <t>$76.0M</t>
   </si>
 </sst>
 </file>
@@ -814,15 +835,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -1128,13 +1149,13 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>750000</v>
+        <v>400000</v>
       </c>
       <c r="E12">
         <v>31.72</v>
       </c>
       <c r="F12">
-        <v>0.1855</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1154,13 +1175,13 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>400000</v>
+        <v>750000</v>
       </c>
       <c r="E13">
         <v>31.72</v>
       </c>
       <c r="F13">
-        <v>9.8900000000000002E-2</v>
+        <v>0.1855</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1200,7 +1221,7 @@
         <v>43943</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1232,13 +1253,13 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>158500</v>
+        <v>550000</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>32.78</v>
       </c>
       <c r="F16">
-        <v>3.56E-2</v>
+        <v>0.1235</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1258,13 +1279,13 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>550000</v>
+        <v>158500</v>
       </c>
       <c r="E17">
-        <v>32.78</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>0.1235</v>
+        <v>3.56E-2</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -1637,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43971</v>
       </c>
@@ -1683,7 +1704,7 @@
         <v>6.88E-2</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1891,7 +1912,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -1943,7 +1964,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -2194,13 +2215,13 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="E53">
         <v>58.02</v>
       </c>
       <c r="F53">
-        <v>1.6799999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G53" t="s">
         <v>102</v>
@@ -2220,13 +2241,13 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="E54">
         <v>58.02</v>
       </c>
       <c r="F54">
-        <v>2.1999999999999999E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="G54" t="s">
         <v>104</v>
@@ -2324,19 +2345,19 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>425000</v>
+        <v>940000</v>
       </c>
       <c r="E58">
-        <v>58.33</v>
+        <v>57.65</v>
       </c>
       <c r="F58">
-        <v>5.4699999999999999E-2</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="G58" t="s">
         <v>112</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2402,19 +2423,19 @@
         <v>9</v>
       </c>
       <c r="D61">
-        <v>835781</v>
+        <v>425000</v>
       </c>
       <c r="E61">
         <v>58.33</v>
       </c>
       <c r="F61">
-        <v>0.1075</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="G61" t="s">
         <v>116</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2428,13 +2449,13 @@
         <v>9</v>
       </c>
       <c r="D62">
-        <v>940000</v>
+        <v>835781</v>
       </c>
       <c r="E62">
-        <v>57.65</v>
+        <v>58.33</v>
       </c>
       <c r="F62">
-        <v>0.12089999999999999</v>
+        <v>0.1075</v>
       </c>
       <c r="G62" t="s">
         <v>118</v>
@@ -2454,13 +2475,13 @@
         <v>9</v>
       </c>
       <c r="D63">
-        <v>128022</v>
+        <v>140500</v>
       </c>
       <c r="E63">
-        <v>65.709999999999994</v>
+        <v>65.8</v>
       </c>
       <c r="F63">
-        <v>1.8200000000000001E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="G63" t="s">
         <v>120</v>
@@ -2480,13 +2501,13 @@
         <v>9</v>
       </c>
       <c r="D64">
-        <v>140500</v>
+        <v>128022</v>
       </c>
       <c r="E64">
-        <v>65.8</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="F64">
-        <v>1.9900000000000001E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="G64" t="s">
         <v>122</v>
@@ -2506,13 +2527,13 @@
         <v>9</v>
       </c>
       <c r="D65">
-        <v>200000</v>
+        <v>136300</v>
       </c>
       <c r="E65">
-        <v>69.344999999999999</v>
+        <v>68.745000000000005</v>
       </c>
       <c r="F65">
-        <v>2.9600000000000001E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G65" t="s">
         <v>124</v>
@@ -2532,16 +2553,16 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>136300</v>
+        <v>100000</v>
       </c>
       <c r="E66">
-        <v>68.745000000000005</v>
+        <v>69.025000000000006</v>
       </c>
       <c r="F66">
-        <v>2.0199999999999999E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -2552,22 +2573,22 @@
         <v>44019</v>
       </c>
       <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>200000</v>
+      </c>
+      <c r="E67">
+        <v>69.344999999999999</v>
+      </c>
+      <c r="F67">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G67" t="s">
         <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>100000</v>
-      </c>
-      <c r="E67">
-        <v>69.025000000000006</v>
-      </c>
-      <c r="F67">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2610,16 +2631,16 @@
         <v>9</v>
       </c>
       <c r="D69">
-        <v>150000</v>
+        <v>115000</v>
       </c>
       <c r="E69">
-        <v>79.174999999999997</v>
+        <v>75.474999999999994</v>
       </c>
       <c r="F69">
-        <v>2.2599999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2665,7 +2686,7 @@
         <v>150000</v>
       </c>
       <c r="E71">
-        <v>75.155000000000001</v>
+        <v>79.174999999999997</v>
       </c>
       <c r="F71">
         <v>2.2599999999999999E-2</v>
@@ -2688,16 +2709,16 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <v>115000</v>
+        <v>150000</v>
       </c>
       <c r="E72">
-        <v>75.474999999999994</v>
+        <v>75.155000000000001</v>
       </c>
       <c r="F72">
-        <v>1.7399999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -2778,6 +2799,110 @@
         <v>138</v>
       </c>
       <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>500000</v>
+      </c>
+      <c r="E76">
+        <v>76.63</v>
+      </c>
+      <c r="F76">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>168050</v>
+      </c>
+      <c r="E77">
+        <v>75.55</v>
+      </c>
+      <c r="F77">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78">
+        <v>100000</v>
+      </c>
+      <c r="E78">
+        <v>74.5</v>
+      </c>
+      <c r="F78">
+        <v>1.52E-2</v>
+      </c>
+      <c r="G78" t="s">
+        <v>143</v>
+      </c>
+      <c r="H78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>1000000</v>
+      </c>
+      <c r="E79">
+        <v>76.14</v>
+      </c>
+      <c r="F79">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="G79" t="s">
+        <v>145</v>
+      </c>
+      <c r="H79" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GSX Results.xlsx
+++ b/GSX Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swiftteamsix/Dropbox/Business/Yolo Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B60C40-2F7E-D041-827D-F1EFE9FD5CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D3049-C951-BD49-AA84-E7CAC5ED4288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="76080" windowHeight="42740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="151">
   <si>
     <t>Date</t>
   </si>
@@ -136,18 +136,18 @@
     <t>$27.0M</t>
   </si>
   <si>
+    <t>09:48:37</t>
+  </si>
+  <si>
+    <t>$5.0M</t>
+  </si>
+  <si>
     <t>15:50:06</t>
   </si>
   <si>
     <t>$18.0M</t>
   </si>
   <si>
-    <t>09:48:37</t>
-  </si>
-  <si>
-    <t>$5.0M</t>
-  </si>
-  <si>
     <t>11:58:20</t>
   </si>
   <si>
@@ -193,21 +193,21 @@
     <t>$20.0M</t>
   </si>
   <si>
+    <t>15:02:39</t>
+  </si>
+  <si>
+    <t>$8.7M</t>
+  </si>
+  <si>
+    <t>14:18:41</t>
+  </si>
+  <si>
+    <t>$7.0M</t>
+  </si>
+  <si>
     <t>13:46:58</t>
   </si>
   <si>
-    <t>$8.7M</t>
-  </si>
-  <si>
-    <t>14:18:41</t>
-  </si>
-  <si>
-    <t>$7.0M</t>
-  </si>
-  <si>
-    <t>15:02:39</t>
-  </si>
-  <si>
     <t>13:53:50</t>
   </si>
   <si>
@@ -355,6 +355,12 @@
     <t>$60.0M</t>
   </si>
   <si>
+    <t>15:16:32</t>
+  </si>
+  <si>
+    <t>$48.0M</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -364,21 +370,15 @@
     <t>15:00:30</t>
   </si>
   <si>
+    <t>15:03:22</t>
+  </si>
+  <si>
+    <t>$24.0M</t>
+  </si>
+  <si>
     <t>15:07:08</t>
   </si>
   <si>
-    <t>15:03:22</t>
-  </si>
-  <si>
-    <t>$24.0M</t>
-  </si>
-  <si>
-    <t>15:16:32</t>
-  </si>
-  <si>
-    <t>$48.0M</t>
-  </si>
-  <si>
     <t>14:59:42</t>
   </si>
   <si>
@@ -397,48 +397,48 @@
     <t>$9.3M</t>
   </si>
   <si>
+    <t>15:51:17</t>
+  </si>
+  <si>
+    <t>$41.0M</t>
+  </si>
+  <si>
+    <t>14:58:58</t>
+  </si>
+  <si>
+    <t>$13.0M</t>
+  </si>
+  <si>
     <t>14:55:45</t>
   </si>
   <si>
-    <t>14:58:58</t>
-  </si>
-  <si>
-    <t>$13.0M</t>
-  </si>
-  <si>
-    <t>15:51:17</t>
-  </si>
-  <si>
-    <t>$41.0M</t>
+    <t>10:43:22</t>
+  </si>
+  <si>
+    <t>$17.0M</t>
+  </si>
+  <si>
+    <t>11:01:14</t>
   </si>
   <si>
     <t>09:52:18</t>
   </si>
   <si>
-    <t>10:43:22</t>
-  </si>
-  <si>
-    <t>$17.0M</t>
-  </si>
-  <si>
-    <t>11:01:14</t>
-  </si>
-  <si>
     <t>10:08:10</t>
   </si>
   <si>
     <t>15:00:28</t>
   </si>
   <si>
+    <t>15:59:33</t>
+  </si>
+  <si>
+    <t>$9.7M</t>
+  </si>
+  <si>
     <t>07:00:02</t>
   </si>
   <si>
-    <t>15:59:33</t>
-  </si>
-  <si>
-    <t>$9.7M</t>
-  </si>
-  <si>
     <t>15:37:34</t>
   </si>
   <si>
@@ -448,16 +448,31 @@
     <t>13:05:41</t>
   </si>
   <si>
+    <t>15:35:15</t>
+  </si>
+  <si>
+    <t>$76.0M</t>
+  </si>
+  <si>
     <t>09:38:51</t>
   </si>
   <si>
     <t>$7.4M</t>
   </si>
   <si>
-    <t>15:35:15</t>
-  </si>
-  <si>
-    <t>$76.0M</t>
+    <t>15:57:20</t>
+  </si>
+  <si>
+    <t>16:10:48</t>
+  </si>
+  <si>
+    <t>15:44:46</t>
+  </si>
+  <si>
+    <t>12:02:57</t>
+  </si>
+  <si>
+    <t>$8.0M</t>
   </si>
 </sst>
 </file>
@@ -835,15 +850,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
@@ -1253,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>550000</v>
+        <v>158500</v>
       </c>
       <c r="E16">
-        <v>32.78</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>0.1235</v>
+        <v>3.56E-2</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -1279,13 +1294,13 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>158500</v>
+        <v>550000</v>
       </c>
       <c r="E17">
-        <v>32</v>
+        <v>32.78</v>
       </c>
       <c r="F17">
-        <v>3.56E-2</v>
+        <v>0.1235</v>
       </c>
       <c r="G17" t="s">
         <v>41</v>
@@ -1516,7 +1531,7 @@
         <v>250000</v>
       </c>
       <c r="E26">
-        <v>35.15</v>
+        <v>34.93</v>
       </c>
       <c r="F26">
         <v>4.6399999999999997E-2</v>
@@ -1525,7 +1540,7 @@
         <v>58</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1568,7 +1583,7 @@
         <v>250000</v>
       </c>
       <c r="E28">
-        <v>34.93</v>
+        <v>35.15</v>
       </c>
       <c r="F28">
         <v>4.6399999999999997E-2</v>
@@ -1577,7 +1592,7 @@
         <v>58</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2345,13 +2360,13 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>940000</v>
+        <v>835781</v>
       </c>
       <c r="E58">
-        <v>57.65</v>
+        <v>58.33</v>
       </c>
       <c r="F58">
-        <v>0.12089999999999999</v>
+        <v>0.1075</v>
       </c>
       <c r="G58" t="s">
         <v>112</v>
@@ -2371,19 +2386,19 @@
         <v>9</v>
       </c>
       <c r="D59">
-        <v>140550</v>
+        <v>940000</v>
       </c>
       <c r="E59">
-        <v>58.33</v>
+        <v>57.65</v>
       </c>
       <c r="F59">
-        <v>1.8100000000000002E-2</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="G59" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2391,22 +2406,22 @@
         <v>44011</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60">
-        <v>560000</v>
+        <v>140550</v>
       </c>
       <c r="E60">
         <v>58.33</v>
       </c>
       <c r="F60">
-        <v>7.1999999999999995E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -2417,7 +2432,7 @@
         <v>44011</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -2432,7 +2447,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="G61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -2443,25 +2458,25 @@
         <v>44011</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62">
-        <v>835781</v>
+        <v>560000</v>
       </c>
       <c r="E62">
         <v>58.33</v>
       </c>
       <c r="F62">
-        <v>0.1075</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="G62" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2553,16 +2568,16 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="E66">
-        <v>69.025000000000006</v>
+        <v>69.11</v>
       </c>
       <c r="F66">
-        <v>1.4800000000000001E-2</v>
+        <v>8.8800000000000004E-2</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -2573,7 +2588,7 @@
         <v>44019</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -2588,7 +2603,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="G67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2599,22 +2614,22 @@
         <v>44019</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
       </c>
       <c r="D68">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="E68">
-        <v>69.11</v>
+        <v>69.025000000000006</v>
       </c>
       <c r="F68">
-        <v>8.8800000000000004E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G68" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2631,16 +2646,16 @@
         <v>9</v>
       </c>
       <c r="D69">
-        <v>115000</v>
+        <v>220000</v>
       </c>
       <c r="E69">
-        <v>75.474999999999994</v>
+        <v>77.275000000000006</v>
       </c>
       <c r="F69">
-        <v>1.7399999999999999E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2651,22 +2666,22 @@
         <v>44020</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="E70">
-        <v>77.275000000000006</v>
+        <v>79.174999999999997</v>
       </c>
       <c r="F70">
-        <v>3.32E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -2683,16 +2698,16 @@
         <v>9</v>
       </c>
       <c r="D71">
-        <v>150000</v>
+        <v>115000</v>
       </c>
       <c r="E71">
-        <v>79.174999999999997</v>
+        <v>75.474999999999994</v>
       </c>
       <c r="F71">
-        <v>2.2599999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G71" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -2761,16 +2776,16 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <v>250000</v>
+        <v>110804</v>
       </c>
       <c r="E74">
-        <v>87.86</v>
+        <v>87.63</v>
       </c>
       <c r="F74">
-        <v>3.61E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G74" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -2781,22 +2796,22 @@
         <v>44022</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75">
-        <v>110804</v>
+        <v>250000</v>
       </c>
       <c r="E75">
-        <v>87.63</v>
+        <v>87.86</v>
       </c>
       <c r="F75">
-        <v>1.6E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="G75" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -2865,19 +2880,19 @@
         <v>9</v>
       </c>
       <c r="D78">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E78">
-        <v>74.5</v>
+        <v>76.14</v>
       </c>
       <c r="F78">
-        <v>1.52E-2</v>
+        <v>0.15190000000000001</v>
       </c>
       <c r="G78" t="s">
         <v>143</v>
       </c>
       <c r="H78" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -2891,18 +2906,122 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E79">
-        <v>76.14</v>
+        <v>74.5</v>
       </c>
       <c r="F79">
-        <v>0.15190000000000001</v>
+        <v>1.52E-2</v>
       </c>
       <c r="G79" t="s">
         <v>145</v>
       </c>
       <c r="H79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <v>285814</v>
+      </c>
+      <c r="E80">
+        <v>83.78</v>
+      </c>
+      <c r="F80">
+        <v>4.53E-2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B81" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>500000</v>
+      </c>
+      <c r="E81">
+        <v>82.36</v>
+      </c>
+      <c r="F81">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>126</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>129270</v>
+      </c>
+      <c r="E82">
+        <v>81.2</v>
+      </c>
+      <c r="F82">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83">
+        <v>100000</v>
+      </c>
+      <c r="E83">
+        <v>80.144999999999996</v>
+      </c>
+      <c r="F83">
+        <v>1.61E-2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GSX Results.xlsx
+++ b/GSX Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swiftteamsix/Dropbox/Business/Yolo Capital/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101D3049-C951-BD49-AA84-E7CAC5ED4288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209B0A4E-22E3-8041-B1CB-807C9B42A104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="76080" windowHeight="42740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18920" yWindow="3140" windowWidth="39440" windowHeight="36300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -67,21 +67,21 @@
     <t>DARK BLOCK</t>
   </si>
   <si>
+    <t>10:48:06</t>
+  </si>
+  <si>
+    <t>$32.0M</t>
+  </si>
+  <si>
+    <t>DARK ISOBB</t>
+  </si>
+  <si>
     <t>15:12:52</t>
   </si>
   <si>
     <t>$5.9M</t>
   </si>
   <si>
-    <t>10:48:06</t>
-  </si>
-  <si>
-    <t>$32.0M</t>
-  </si>
-  <si>
-    <t>DARK ISOBB</t>
-  </si>
-  <si>
     <t>14:50:07</t>
   </si>
   <si>
@@ -115,18 +115,18 @@
     <t>$14.0M</t>
   </si>
   <si>
+    <t>15:27:39</t>
+  </si>
+  <si>
+    <t>$23.0M</t>
+  </si>
+  <si>
     <t>15:53:05</t>
   </si>
   <si>
     <t>$12.0M</t>
   </si>
   <si>
-    <t>15:27:39</t>
-  </si>
-  <si>
-    <t>$23.0M</t>
-  </si>
-  <si>
     <t>16:19:22</t>
   </si>
   <si>
@@ -175,39 +175,39 @@
     <t>$11.0M</t>
   </si>
   <si>
+    <t>16:11:07</t>
+  </si>
+  <si>
+    <t>$5.1M</t>
+  </si>
+  <si>
     <t>15:31:16</t>
   </si>
   <si>
     <t>$21.0M</t>
   </si>
   <si>
-    <t>16:11:07</t>
-  </si>
-  <si>
-    <t>$5.1M</t>
-  </si>
-  <si>
     <t>15:05:44</t>
   </si>
   <si>
     <t>$20.0M</t>
   </si>
   <si>
+    <t>14:18:41</t>
+  </si>
+  <si>
+    <t>$7.0M</t>
+  </si>
+  <si>
+    <t>13:46:58</t>
+  </si>
+  <si>
+    <t>$8.7M</t>
+  </si>
+  <si>
     <t>15:02:39</t>
   </si>
   <si>
-    <t>$8.7M</t>
-  </si>
-  <si>
-    <t>14:18:41</t>
-  </si>
-  <si>
-    <t>$7.0M</t>
-  </si>
-  <si>
-    <t>13:46:58</t>
-  </si>
-  <si>
     <t>13:53:50</t>
   </si>
   <si>
@@ -292,27 +292,27 @@
     <t>13:59:12</t>
   </si>
   <si>
+    <t>12:53:58</t>
+  </si>
+  <si>
+    <t>12:19:05</t>
+  </si>
+  <si>
+    <t>$6.4M</t>
+  </si>
+  <si>
     <t>16:33:25</t>
   </si>
   <si>
     <t>$52.0M</t>
   </si>
   <si>
-    <t>12:19:05</t>
-  </si>
-  <si>
-    <t>$6.4M</t>
-  </si>
-  <si>
     <t>10:46:26</t>
   </si>
   <si>
     <t>$8.1M</t>
   </si>
   <si>
-    <t>12:53:58</t>
-  </si>
-  <si>
     <t>15:49:21</t>
   </si>
   <si>
@@ -325,34 +325,43 @@
     <t>14:57:25</t>
   </si>
   <si>
+    <t>12:42:40</t>
+  </si>
+  <si>
+    <t>$7.5M</t>
+  </si>
+  <si>
     <t>12:31:10</t>
   </si>
   <si>
     <t>$9.8M</t>
   </si>
   <si>
-    <t>12:42:40</t>
-  </si>
-  <si>
-    <t>$7.5M</t>
-  </si>
-  <si>
     <t>16:06:44</t>
   </si>
   <si>
     <t>$87.0M</t>
   </si>
   <si>
+    <t>15:01:25</t>
+  </si>
+  <si>
+    <t>$60.0M</t>
+  </si>
+  <si>
     <t>16:22:00</t>
   </si>
   <si>
     <t>$66.0M</t>
   </si>
   <si>
-    <t>15:01:25</t>
-  </si>
-  <si>
-    <t>$60.0M</t>
+    <t>15:00:30</t>
+  </si>
+  <si>
+    <t>07:00:00</t>
+  </si>
+  <si>
+    <t>$54.0M</t>
   </si>
   <si>
     <t>15:16:32</t>
@@ -361,15 +370,6 @@
     <t>$48.0M</t>
   </si>
   <si>
-    <t>07:00:00</t>
-  </si>
-  <si>
-    <t>$54.0M</t>
-  </si>
-  <si>
-    <t>15:00:30</t>
-  </si>
-  <si>
     <t>15:03:22</t>
   </si>
   <si>
@@ -379,16 +379,25 @@
     <t>15:07:08</t>
   </si>
   <si>
+    <t>15:06:54</t>
+  </si>
+  <si>
+    <t>$8.4M</t>
+  </si>
+  <si>
     <t>14:59:42</t>
   </si>
   <si>
     <t>$9.2M</t>
   </si>
   <si>
-    <t>15:06:54</t>
-  </si>
-  <si>
-    <t>$8.4M</t>
+    <t>14:58:58</t>
+  </si>
+  <si>
+    <t>$13.0M</t>
+  </si>
+  <si>
+    <t>14:55:45</t>
   </si>
   <si>
     <t>14:50:00</t>
@@ -403,13 +412,7 @@
     <t>$41.0M</t>
   </si>
   <si>
-    <t>14:58:58</t>
-  </si>
-  <si>
-    <t>$13.0M</t>
-  </si>
-  <si>
-    <t>14:55:45</t>
+    <t>11:01:14</t>
   </si>
   <si>
     <t>10:43:22</t>
@@ -418,27 +421,24 @@
     <t>$17.0M</t>
   </si>
   <si>
-    <t>11:01:14</t>
+    <t>10:08:10</t>
   </si>
   <si>
     <t>09:52:18</t>
   </si>
   <si>
-    <t>10:08:10</t>
-  </si>
-  <si>
     <t>15:00:28</t>
   </si>
   <si>
+    <t>07:00:02</t>
+  </si>
+  <si>
     <t>15:59:33</t>
   </si>
   <si>
     <t>$9.7M</t>
   </si>
   <si>
-    <t>07:00:02</t>
-  </si>
-  <si>
     <t>15:37:34</t>
   </si>
   <si>
@@ -473,6 +473,174 @@
   </si>
   <si>
     <t>$8.0M</t>
+  </si>
+  <si>
+    <t>15:27:30</t>
+  </si>
+  <si>
+    <t>$43.0M</t>
+  </si>
+  <si>
+    <t>15:59:44</t>
+  </si>
+  <si>
+    <t>$115.0M</t>
+  </si>
+  <si>
+    <t>15:52:22</t>
+  </si>
+  <si>
+    <t>16:23:44</t>
+  </si>
+  <si>
+    <t>$9.0M</t>
+  </si>
+  <si>
+    <t>15:31:01</t>
+  </si>
+  <si>
+    <t>$69.0M</t>
+  </si>
+  <si>
+    <t>16:38:39</t>
+  </si>
+  <si>
+    <t>13:09:30</t>
+  </si>
+  <si>
+    <t>13:45:33</t>
+  </si>
+  <si>
+    <t>16:35:35</t>
+  </si>
+  <si>
+    <t>$34.0M</t>
+  </si>
+  <si>
+    <t>14:31:29</t>
+  </si>
+  <si>
+    <t>16:14:22</t>
+  </si>
+  <si>
+    <t>$51.0M</t>
+  </si>
+  <si>
+    <t>16:36:04</t>
+  </si>
+  <si>
+    <t>$65.0M</t>
+  </si>
+  <si>
+    <t>16:36:49</t>
+  </si>
+  <si>
+    <t>16:11:47</t>
+  </si>
+  <si>
+    <t>$63.0M</t>
+  </si>
+  <si>
+    <t>13:44:24</t>
+  </si>
+  <si>
+    <t>10:21:53</t>
+  </si>
+  <si>
+    <t>$55.0M</t>
+  </si>
+  <si>
+    <t>11:07:25</t>
+  </si>
+  <si>
+    <t>$36.0M</t>
+  </si>
+  <si>
+    <t>13:32:21</t>
+  </si>
+  <si>
+    <t>15:45:01</t>
+  </si>
+  <si>
+    <t>16:46:00</t>
+  </si>
+  <si>
+    <t>10:29:14</t>
+  </si>
+  <si>
+    <t>$8.8M</t>
+  </si>
+  <si>
+    <t>16:22:31</t>
+  </si>
+  <si>
+    <t>$73.0M</t>
+  </si>
+  <si>
+    <t>16:34:18</t>
+  </si>
+  <si>
+    <t>15:23:02</t>
+  </si>
+  <si>
+    <t>$134.0M</t>
+  </si>
+  <si>
+    <t>14:58:57</t>
+  </si>
+  <si>
+    <t>$44.0M</t>
+  </si>
+  <si>
+    <t>15:00:47</t>
+  </si>
+  <si>
+    <t>16:21:53</t>
+  </si>
+  <si>
+    <t>15:29:38</t>
+  </si>
+  <si>
+    <t>$185.0M</t>
+  </si>
+  <si>
+    <t>16:33:02</t>
+  </si>
+  <si>
+    <t>$88.0M</t>
+  </si>
+  <si>
+    <t>16:29:11</t>
+  </si>
+  <si>
+    <t>15:37:56</t>
+  </si>
+  <si>
+    <t>$186.0M</t>
+  </si>
+  <si>
+    <t>14:44:03</t>
+  </si>
+  <si>
+    <t>12:53:01</t>
+  </si>
+  <si>
+    <t>13:39:43</t>
+  </si>
+  <si>
+    <t>$22.0M</t>
+  </si>
+  <si>
+    <t>13:19:09</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
+    <t>13:09:33</t>
+  </si>
+  <si>
+    <t>16:12:45</t>
   </si>
 </sst>
 </file>
@@ -496,12 +664,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -531,17 +705,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -850,21 +1035,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -982,19 +1161,19 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>174900</v>
+        <v>967840</v>
       </c>
       <c r="E5">
-        <v>33.759099999999997</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="F5">
-        <v>6.13E-2</v>
+        <v>0.3392</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,25 +1181,25 @@
         <v>43927</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>967840</v>
+        <v>174900</v>
       </c>
       <c r="E6">
-        <v>34.049999999999997</v>
+        <v>33.759099999999997</v>
       </c>
       <c r="F6">
-        <v>0.3392</v>
+        <v>6.13E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1164,13 +1343,13 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>400000</v>
+        <v>750000</v>
       </c>
       <c r="E12">
         <v>31.72</v>
       </c>
       <c r="F12">
-        <v>9.8900000000000002E-2</v>
+        <v>0.1855</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
@@ -1190,13 +1369,13 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>750000</v>
+        <v>400000</v>
       </c>
       <c r="E13">
         <v>31.72</v>
       </c>
       <c r="F13">
-        <v>0.1855</v>
+        <v>9.8900000000000002E-2</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1236,7 +1415,7 @@
         <v>43943</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -1450,13 +1629,13 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>520515</v>
+        <v>125000</v>
       </c>
       <c r="E23">
         <v>40.869999999999997</v>
       </c>
       <c r="F23">
-        <v>9.9299999999999999E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -1476,13 +1655,13 @@
         <v>9</v>
       </c>
       <c r="D24">
-        <v>125000</v>
+        <v>520515</v>
       </c>
       <c r="E24">
         <v>40.869999999999997</v>
       </c>
       <c r="F24">
-        <v>2.3800000000000002E-2</v>
+        <v>9.9299999999999999E-2</v>
       </c>
       <c r="G24" t="s">
         <v>54</v>
@@ -1528,19 +1707,19 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="E26">
-        <v>34.93</v>
+        <v>35.229999999999997</v>
       </c>
       <c r="F26">
-        <v>4.6399999999999997E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="G26" t="s">
         <v>58</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1554,13 +1733,13 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="E27">
-        <v>35.229999999999997</v>
+        <v>35.15</v>
       </c>
       <c r="F27">
-        <v>3.7100000000000001E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="G27" t="s">
         <v>60</v>
@@ -1583,16 +1762,16 @@
         <v>250000</v>
       </c>
       <c r="E28">
-        <v>35.15</v>
+        <v>34.93</v>
       </c>
       <c r="F28">
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1719,7 +1898,7 @@
         <v>6.88E-2</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1927,7 +2106,7 @@
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -1979,7 +2158,7 @@
         <v>8.6599999999999996E-2</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -2004,7 +2183,7 @@
       <c r="F44">
         <v>0.32479999999999998</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>88</v>
       </c>
       <c r="H44" t="s">
@@ -2048,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="D46">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E46">
-        <v>52</v>
+        <v>52.15</v>
       </c>
       <c r="F46">
-        <v>0.14929999999999999</v>
+        <v>1.49E-2</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -2068,7 +2247,7 @@
         <v>43997</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -2083,7 +2262,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="G47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2094,25 +2273,25 @@
         <v>43997</v>
       </c>
       <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>1000000</v>
+      </c>
+      <c r="E48">
+        <v>52</v>
+      </c>
+      <c r="F48">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="G48" t="s">
         <v>94</v>
       </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>150000</v>
-      </c>
-      <c r="E48">
-        <v>54.5</v>
-      </c>
-      <c r="F48">
-        <v>2.24E-2</v>
-      </c>
-      <c r="G48" t="s">
-        <v>95</v>
-      </c>
       <c r="H48" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2120,25 +2299,25 @@
         <v>43997</v>
       </c>
       <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>150000</v>
+      </c>
+      <c r="E49">
+        <v>54.5</v>
+      </c>
+      <c r="F49">
+        <v>2.24E-2</v>
+      </c>
+      <c r="G49" t="s">
         <v>96</v>
       </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49">
-        <v>100000</v>
-      </c>
-      <c r="E49">
-        <v>52.15</v>
-      </c>
-      <c r="F49">
-        <v>1.49E-2</v>
-      </c>
-      <c r="G49" t="s">
-        <v>74</v>
-      </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2186,7 +2365,7 @@
       <c r="F51">
         <v>0.43169999999999997</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>99</v>
       </c>
       <c r="H51" t="s">
@@ -2230,13 +2409,13 @@
         <v>9</v>
       </c>
       <c r="D53">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="E53">
         <v>58.02</v>
       </c>
       <c r="F53">
-        <v>2.1999999999999999E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="G53" t="s">
         <v>102</v>
@@ -2256,13 +2435,13 @@
         <v>9</v>
       </c>
       <c r="D54">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="E54">
         <v>58.02</v>
       </c>
       <c r="F54">
-        <v>1.6799999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G54" t="s">
         <v>104</v>
@@ -2290,7 +2469,7 @@
       <c r="F55">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="3" t="s">
         <v>106</v>
       </c>
       <c r="H55" t="s">
@@ -2308,15 +2487,15 @@
         <v>9</v>
       </c>
       <c r="D56">
-        <v>1154254</v>
+        <v>1051121</v>
       </c>
       <c r="E56">
         <v>57.65</v>
       </c>
       <c r="F56">
-        <v>0.15049999999999999</v>
-      </c>
-      <c r="G56" t="s">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>108</v>
       </c>
       <c r="H56" t="s">
@@ -2334,15 +2513,15 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>1051121</v>
+        <v>1154254</v>
       </c>
       <c r="E57">
         <v>57.65</v>
       </c>
       <c r="F57">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G57" t="s">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H57" t="s">
@@ -2360,19 +2539,19 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>835781</v>
+        <v>140550</v>
       </c>
       <c r="E58">
         <v>58.33</v>
       </c>
       <c r="F58">
-        <v>0.1075</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2380,7 +2559,7 @@
         <v>44011</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2395,7 +2574,7 @@
         <v>0.12089999999999999</v>
       </c>
       <c r="G59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -2406,25 +2585,25 @@
         <v>44011</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60">
-        <v>140550</v>
+        <v>835781</v>
       </c>
       <c r="E60">
         <v>58.33</v>
       </c>
       <c r="F60">
-        <v>1.8100000000000002E-2</v>
+        <v>0.1075</v>
       </c>
       <c r="G60" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2473,7 +2652,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -2490,13 +2669,13 @@
         <v>9</v>
       </c>
       <c r="D63">
-        <v>140500</v>
+        <v>128022</v>
       </c>
       <c r="E63">
-        <v>65.8</v>
+        <v>65.709999999999994</v>
       </c>
       <c r="F63">
-        <v>1.9900000000000001E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="G63" t="s">
         <v>120</v>
@@ -2516,13 +2695,13 @@
         <v>9</v>
       </c>
       <c r="D64">
-        <v>128022</v>
+        <v>140500</v>
       </c>
       <c r="E64">
-        <v>65.709999999999994</v>
+        <v>65.8</v>
       </c>
       <c r="F64">
-        <v>1.8200000000000001E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="G64" t="s">
         <v>122</v>
@@ -2542,13 +2721,13 @@
         <v>9</v>
       </c>
       <c r="D65">
-        <v>136300</v>
+        <v>200000</v>
       </c>
       <c r="E65">
-        <v>68.745000000000005</v>
+        <v>69.344999999999999</v>
       </c>
       <c r="F65">
-        <v>2.0199999999999999E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="G65" t="s">
         <v>124</v>
@@ -2568,16 +2747,16 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="E66">
-        <v>69.11</v>
+        <v>69.025000000000006</v>
       </c>
       <c r="F66">
-        <v>8.8800000000000004E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -2588,22 +2767,22 @@
         <v>44019</v>
       </c>
       <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>136300</v>
+      </c>
+      <c r="E67">
+        <v>68.745000000000005</v>
+      </c>
+      <c r="F67">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G67" t="s">
         <v>127</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67">
-        <v>200000</v>
-      </c>
-      <c r="E67">
-        <v>69.344999999999999</v>
-      </c>
-      <c r="F67">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="G67" t="s">
-        <v>128</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2614,22 +2793,22 @@
         <v>44019</v>
       </c>
       <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <v>600000</v>
+      </c>
+      <c r="E68">
+        <v>69.11</v>
+      </c>
+      <c r="F68">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="G68" t="s">
         <v>129</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68">
-        <v>100000</v>
-      </c>
-      <c r="E68">
-        <v>69.025000000000006</v>
-      </c>
-      <c r="F68">
-        <v>1.4800000000000001E-2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>81</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2646,16 +2825,16 @@
         <v>9</v>
       </c>
       <c r="D69">
-        <v>220000</v>
+        <v>150000</v>
       </c>
       <c r="E69">
-        <v>77.275000000000006</v>
+        <v>79.174999999999997</v>
       </c>
       <c r="F69">
-        <v>3.32E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="G69" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2666,22 +2845,22 @@
         <v>44020</v>
       </c>
       <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>220000</v>
+      </c>
+      <c r="E70">
+        <v>77.275000000000006</v>
+      </c>
+      <c r="F70">
+        <v>3.32E-2</v>
+      </c>
+      <c r="G70" t="s">
         <v>132</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70">
-        <v>150000</v>
-      </c>
-      <c r="E70">
-        <v>79.174999999999997</v>
-      </c>
-      <c r="F70">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>50</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -2698,16 +2877,16 @@
         <v>9</v>
       </c>
       <c r="D71">
-        <v>115000</v>
+        <v>150000</v>
       </c>
       <c r="E71">
-        <v>75.474999999999994</v>
+        <v>75.155000000000001</v>
       </c>
       <c r="F71">
-        <v>1.7399999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -2724,16 +2903,16 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <v>150000</v>
+        <v>115000</v>
       </c>
       <c r="E72">
-        <v>75.155000000000001</v>
+        <v>75.474999999999994</v>
       </c>
       <c r="F72">
-        <v>2.2599999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="G72" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -2776,16 +2955,16 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <v>110804</v>
+        <v>250000</v>
       </c>
       <c r="E74">
-        <v>87.63</v>
+        <v>87.86</v>
       </c>
       <c r="F74">
-        <v>1.6E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="G74" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -2796,22 +2975,22 @@
         <v>44022</v>
       </c>
       <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>110804</v>
+      </c>
+      <c r="E75">
+        <v>87.63</v>
+      </c>
+      <c r="F75">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G75" t="s">
         <v>138</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75">
-        <v>250000</v>
-      </c>
-      <c r="E75">
-        <v>87.86</v>
-      </c>
-      <c r="F75">
-        <v>3.61E-2</v>
-      </c>
-      <c r="G75" t="s">
-        <v>52</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -2863,7 +3042,7 @@
         <v>2.4799999999999999E-2</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -2888,7 +3067,7 @@
       <c r="F78">
         <v>0.15190000000000001</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="3" t="s">
         <v>143</v>
       </c>
       <c r="H78" t="s">
@@ -2941,7 +3120,7 @@
         <v>4.53E-2</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -2967,7 +3146,7 @@
         <v>7.9600000000000004E-2</v>
       </c>
       <c r="G81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -3025,9 +3204,1011 @@
         <v>14</v>
       </c>
     </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B84" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84">
+        <v>500000</v>
+      </c>
+      <c r="E84">
+        <v>87.37</v>
+      </c>
+      <c r="F84">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>152</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85">
+        <v>1321343</v>
+      </c>
+      <c r="E85">
+        <v>87.37</v>
+      </c>
+      <c r="F85">
+        <v>0.2165</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86">
+        <v>120750</v>
+      </c>
+      <c r="E86">
+        <v>83.77</v>
+      </c>
+      <c r="F86">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>105673</v>
+      </c>
+      <c r="E87">
+        <v>86.05</v>
+      </c>
+      <c r="F87">
+        <v>2.12E-2</v>
+      </c>
+      <c r="G87" t="s">
+        <v>157</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>810000</v>
+      </c>
+      <c r="E88">
+        <v>86.05</v>
+      </c>
+      <c r="F88">
+        <v>0.16209999999999999</v>
+      </c>
+      <c r="G88" t="s">
+        <v>159</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89">
+        <v>226872</v>
+      </c>
+      <c r="E89">
+        <v>105.39</v>
+      </c>
+      <c r="F89">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90">
+        <v>226872</v>
+      </c>
+      <c r="E90">
+        <v>105.39</v>
+      </c>
+      <c r="F90">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>205000</v>
+      </c>
+      <c r="E91">
+        <v>122.75</v>
+      </c>
+      <c r="F91">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B92" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <v>100000</v>
+      </c>
+      <c r="E92">
+        <v>124.75</v>
+      </c>
+      <c r="F92">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B93" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93">
+        <v>322000</v>
+      </c>
+      <c r="E93">
+        <v>106.99</v>
+      </c>
+      <c r="F93">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="G93" t="s">
+        <v>164</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>200000</v>
+      </c>
+      <c r="E94">
+        <v>105.4</v>
+      </c>
+      <c r="F94">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="G94" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>483870</v>
+      </c>
+      <c r="E95">
+        <v>106.99</v>
+      </c>
+      <c r="F95">
+        <v>0.1002</v>
+      </c>
+      <c r="G95" t="s">
+        <v>167</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B96" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96">
+        <v>678000</v>
+      </c>
+      <c r="E96">
+        <v>96.56</v>
+      </c>
+      <c r="F96">
+        <v>0.1221</v>
+      </c>
+      <c r="G96" t="s">
+        <v>169</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>678000</v>
+      </c>
+      <c r="E97">
+        <v>96.56</v>
+      </c>
+      <c r="F97">
+        <v>0.1221</v>
+      </c>
+      <c r="G97" t="s">
+        <v>169</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>659711</v>
+      </c>
+      <c r="E98">
+        <v>96.56</v>
+      </c>
+      <c r="F98">
+        <v>0.1188</v>
+      </c>
+      <c r="G98" t="s">
+        <v>172</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B99" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <v>250000</v>
+      </c>
+      <c r="E99">
+        <v>101.5</v>
+      </c>
+      <c r="F99">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>520000</v>
+      </c>
+      <c r="E100">
+        <v>106.455</v>
+      </c>
+      <c r="F100">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>175</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>350000</v>
+      </c>
+      <c r="E101">
+        <v>103.55500000000001</v>
+      </c>
+      <c r="F101">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>177</v>
+      </c>
+      <c r="H101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B102" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>250000</v>
+      </c>
+      <c r="E102">
+        <v>100.8</v>
+      </c>
+      <c r="F102">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>850000</v>
+      </c>
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <v>213842</v>
+      </c>
+      <c r="E104">
+        <v>100</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B105" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>104200</v>
+      </c>
+      <c r="E105">
+        <v>85</v>
+      </c>
+      <c r="F105">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>182</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B106" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>827218</v>
+      </c>
+      <c r="E106">
+        <v>89.2</v>
+      </c>
+      <c r="F106">
+        <v>0.1532</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>279430</v>
+      </c>
+      <c r="E107">
+        <v>88.01</v>
+      </c>
+      <c r="F107">
+        <v>5.04E-2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>1500000</v>
+      </c>
+      <c r="E108">
+        <v>89.99</v>
+      </c>
+      <c r="F108">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B109" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>500000</v>
+      </c>
+      <c r="E109">
+        <v>89.95</v>
+      </c>
+      <c r="F109">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>189</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B110" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>1000000</v>
+      </c>
+      <c r="E110">
+        <v>87.13</v>
+      </c>
+      <c r="F110">
+        <v>0.18049999999999999</v>
+      </c>
+      <c r="G110" t="s">
+        <v>106</v>
+      </c>
+      <c r="H110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B111" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>500000</v>
+      </c>
+      <c r="E111">
+        <v>87.5</v>
+      </c>
+      <c r="F111">
+        <v>9.0300000000000005E-2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>152</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>2119796</v>
+      </c>
+      <c r="E112">
+        <v>87.5</v>
+      </c>
+      <c r="F112">
+        <v>0.3826</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>1000000</v>
+      </c>
+      <c r="E113">
+        <v>88.18</v>
+      </c>
+      <c r="F113">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>1000000</v>
+      </c>
+      <c r="E114">
+        <v>88.18</v>
+      </c>
+      <c r="F114">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B115" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>2119796</v>
+      </c>
+      <c r="E115">
+        <v>88.18</v>
+      </c>
+      <c r="F115">
+        <v>0.40649999999999997</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>1000000</v>
+      </c>
+      <c r="E116">
+        <v>88.63</v>
+      </c>
+      <c r="F116">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B117" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>115000</v>
+      </c>
+      <c r="E117">
+        <v>88.53</v>
+      </c>
+      <c r="F117">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>250000</v>
+      </c>
+      <c r="E118">
+        <v>90.23</v>
+      </c>
+      <c r="F118">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G118" t="s">
+        <v>202</v>
+      </c>
+      <c r="H118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>150000</v>
+      </c>
+      <c r="E119">
+        <v>89.73</v>
+      </c>
+      <c r="F119">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B120" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>400000</v>
+      </c>
+      <c r="E120">
+        <v>90.23</v>
+      </c>
+      <c r="F120">
+        <v>7.85E-2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>177</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B121" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>350000</v>
+      </c>
+      <c r="E121">
+        <v>90.93</v>
+      </c>
+      <c r="F121">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B122" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>117467</v>
+      </c>
+      <c r="E122">
+        <v>90.26</v>
+      </c>
+      <c r="F122">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>1000000</formula>
     </cfRule>
   </conditionalFormatting>
